--- a/Digital Distance Measurement/Design & Code/TestCases_Digital Distance Meter.xlsx
+++ b/Digital Distance Measurement/Design & Code/TestCases_Digital Distance Meter.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI-Embedded Systems\Software Engineering\Repository\Digital Distance Measurement\Design &amp; Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <r>
       <rPr>
-        <sz val="36.0"/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Digital Distance Meter</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                              </t>
     </r>
   </si>
@@ -63,9 +77,6 @@
     <t>1-Connect Pin  zero in Microcontroller 
 2-run the function Buzzer_voidRun(void)
 3-check if buzzer will running or not</t>
-  </si>
-  <si>
-    <t>Buzzer will run</t>
   </si>
   <si>
     <t>Successfull run for the Buzzer</t>
@@ -164,23 +175,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="18.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -188,7 +210,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,61 +249,127 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBF9000"/>
+          <bgColor rgb="FFBF9000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D85C6"/>
+          <bgColor rgb="FF3D85C6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC27BA0"/>
+          <bgColor rgb="FFC27BA0"/>
+        </patternFill>
+      </fill>
       <border>
         <left/>
         <right/>
@@ -299,7 +387,6 @@
           <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
-      <alignment/>
       <border>
         <left/>
         <right/>
@@ -313,97 +400,10 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC27BA0"/>
-          <bgColor rgb="FFC27BA0"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D85C6"/>
-          <bgColor rgb="FF3D85C6"/>
-        </patternFill>
-      </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBF9000"/>
-          <bgColor rgb="FFBF9000"/>
-        </patternFill>
-      </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF38761D"/>
-          <bgColor rgb="FF38761D"/>
-        </patternFill>
-      </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-      <alignment/>
       <border>
         <left/>
         <right/>
@@ -412,40 +412,309 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.71"/>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
-    <col customWidth="1" min="3" max="3" width="29.57"/>
-    <col customWidth="1" min="4" max="4" width="49.14"/>
-    <col customWidth="1" min="5" max="5" width="45.71"/>
-    <col customWidth="1" min="6" max="6" width="41.86"/>
-    <col customWidth="1" min="7" max="7" width="18.71"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -471,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -481,168 +750,169 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6">
+    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    <row r="12" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A1000">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1000">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C1000">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D1000">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E1000">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F1000">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G1000">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="7">
       <formula>LEN(TRIM(G3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H1000">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H1000">
       <formula1>"Passed,Failed"</formula1>
     </dataValidation>
@@ -650,6 +920,6 @@
       <formula1>"Critical,Meduim,High"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>